--- a/Clue Game Board.xlsx
+++ b/Clue Game Board.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306 Software Engineering\Clue Layout\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306\ClueGameNmEsMc 2\ClueGameNmEsMc\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -123,7 +123,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="14">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -154,6 +154,54 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFCC99FF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF99CCFF"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -167,7 +215,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -186,12 +234,49 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="FF99CCFF"/>
+      <color rgb="FFCC99FF"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -201,6 +286,116 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="5324475"/>
+          <a:ext cx="4848225" cy="1762125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Number of Doors: 18</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>White: door direction tests(in BoardInitTests)</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100"/>
+            <a:t>Orange:</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t> adjacency list tests, inside room</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Purple: adjacency list tests, room exits</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Green: adjacency lists beside room entrance</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Light Purple: walkway scenarios</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1100" baseline="0"/>
+            <a:t>Light Blue: tests targets</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -466,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Z27"/>
+  <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="X1" sqref="X1"/>
+      <selection activeCell="AB12" sqref="AB12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -493,13 +688,13 @@
       <c r="E1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="11" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="13" t="s">
         <v>9</v>
       </c>
       <c r="I1" s="5" t="s">
@@ -511,7 +706,7 @@
       <c r="K1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="15" t="s">
         <v>25</v>
       </c>
       <c r="M1" s="2" t="s">
@@ -550,7 +745,7 @@
       <c r="X1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="Y1" s="3" t="s">
+      <c r="Y1" s="18" t="s">
         <v>0</v>
       </c>
       <c r="Z1">
@@ -558,7 +753,7 @@
       </c>
     </row>
     <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -680,7 +875,7 @@
       <c r="N3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="O3" s="7" t="s">
+      <c r="O3" s="10" t="s">
         <v>21</v>
       </c>
       <c r="P3" s="5" t="s">
@@ -736,7 +931,7 @@
       <c r="F4" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="2" t="s">
+      <c r="G4" s="15" t="s">
         <v>25</v>
       </c>
       <c r="H4" s="5" t="s">
@@ -781,7 +976,7 @@
       <c r="U4" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="6" t="s">
+      <c r="V4" s="16" t="s">
         <v>19</v>
       </c>
       <c r="W4" s="3" t="s">
@@ -861,7 +1056,7 @@
       <c r="U5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V5" s="3" t="s">
+      <c r="V5" s="18" t="s">
         <v>0</v>
       </c>
       <c r="W5" s="3" t="s">
@@ -899,13 +1094,13 @@
       <c r="G6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="17" t="s">
         <v>9</v>
       </c>
       <c r="I6" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="J6" s="7" t="s">
+      <c r="J6" s="19" t="s">
         <v>23</v>
       </c>
       <c r="K6" s="5" t="s">
@@ -988,7 +1183,7 @@
       <c r="J7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K7" s="2" t="s">
+      <c r="K7" s="16" t="s">
         <v>25</v>
       </c>
       <c r="L7" s="2" t="s">
@@ -1006,7 +1201,7 @@
       <c r="P7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q7" s="2" t="s">
+      <c r="Q7" s="14" t="s">
         <v>25</v>
       </c>
       <c r="R7" s="2" t="s">
@@ -1053,7 +1248,7 @@
       <c r="E8" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="9" t="s">
         <v>10</v>
       </c>
       <c r="G8" s="2" t="s">
@@ -1110,7 +1305,7 @@
       <c r="X8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Y8" s="2" t="s">
+      <c r="Y8" s="15" t="s">
         <v>25</v>
       </c>
       <c r="Z8">
@@ -1415,13 +1610,13 @@
       <c r="S12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="T12" s="2" t="s">
+      <c r="T12" s="15" t="s">
         <v>25</v>
       </c>
       <c r="U12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="V12" s="6" t="s">
+      <c r="V12" s="9" t="s">
         <v>17</v>
       </c>
       <c r="W12" s="3" t="s">
@@ -1447,7 +1642,7 @@
       <c r="C13" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="11" t="s">
         <v>27</v>
       </c>
       <c r="E13" s="3" t="s">
@@ -1598,7 +1793,7 @@
       </c>
     </row>
     <row r="15" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A15" s="2" t="s">
+      <c r="A15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1806,7 +2001,7 @@
       <c r="P17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="Q17" s="2" t="s">
+      <c r="Q17" s="16" t="s">
         <v>25</v>
       </c>
       <c r="R17" s="2" t="s">
@@ -1844,7 +2039,7 @@
       <c r="B18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C18" s="2" t="s">
+      <c r="C18" s="14" t="s">
         <v>25</v>
       </c>
       <c r="D18" s="2" t="s">
@@ -1966,7 +2161,7 @@
       <c r="P19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="Q19" s="6" t="s">
+      <c r="Q19" s="9" t="s">
         <v>14</v>
       </c>
       <c r="R19" s="3" t="s">
@@ -1975,10 +2170,10 @@
       <c r="S19" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T19" s="6" t="s">
+      <c r="T19" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="U19" s="2" t="s">
+      <c r="U19" s="15" t="s">
         <v>25</v>
       </c>
       <c r="V19" s="2" t="s">
@@ -1987,10 +2182,10 @@
       <c r="W19" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="X19" s="3" t="s">
+      <c r="X19" s="12" t="s">
         <v>2</v>
       </c>
-      <c r="Y19" s="2" t="s">
+      <c r="Y19" s="20" t="s">
         <v>25</v>
       </c>
       <c r="Z19">
@@ -2090,7 +2285,7 @@
       <c r="D21" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E21" s="6" t="s">
+      <c r="E21" s="11" t="s">
         <v>26</v>
       </c>
       <c r="F21" s="2" t="s">
@@ -2179,7 +2374,7 @@
       <c r="G22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="H22" s="2" t="s">
+      <c r="H22" s="16" t="s">
         <v>25</v>
       </c>
       <c r="I22" s="3" t="s">
@@ -2194,7 +2389,7 @@
       <c r="L22" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="M22" s="2" t="s">
+      <c r="M22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="N22" s="2" t="s">
@@ -2221,7 +2416,7 @@
       <c r="U22" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="V22" s="2" t="s">
+      <c r="V22" s="14" t="s">
         <v>25</v>
       </c>
       <c r="W22" s="6" t="s">
@@ -2289,7 +2484,7 @@
       <c r="Q23" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="R23" s="3" t="s">
+      <c r="R23" s="12" t="s">
         <v>5</v>
       </c>
       <c r="S23" s="3" t="s">
@@ -2455,7 +2650,7 @@
       <c r="S25" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="T25" s="3" t="s">
+      <c r="T25" s="11" t="s">
         <v>5</v>
       </c>
       <c r="U25" s="2" t="s">
@@ -2517,7 +2712,7 @@
       <c r="M26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="N26" s="2" t="s">
+      <c r="N26" s="20" t="s">
         <v>25</v>
       </c>
       <c r="O26" s="3" t="s">
@@ -2538,10 +2733,10 @@
       <c r="T26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="U26" s="2" t="s">
-        <v>25</v>
-      </c>
-      <c r="V26" s="2" t="s">
+      <c r="U26" s="20" t="s">
+        <v>25</v>
+      </c>
+      <c r="V26" s="15" t="s">
         <v>25</v>
       </c>
       <c r="W26" s="3" t="s">
@@ -2634,8 +2829,12 @@
         <v>24</v>
       </c>
     </row>
+    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+      <c r="A29" s="8"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/Clue Game Board.xlsx
+++ b/Clue Game Board.xlsx
@@ -1,22 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="26408"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Z:\CSCI306\ClueGameNmEsMc 2\ClueGameNmEsMc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/EvanS/Desktop/School/Mines/S5-Fall2016/SoftwareEng/ClueGameNmEsMc/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12300"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -113,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -664,16 +667,16 @@
   <dimension ref="A1:Z29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AB12" sqref="AB12"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="1" max="1" width="9.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A1" s="16" t="s">
         <v>25</v>
       </c>
       <c r="B1" s="2" t="s">
@@ -752,8 +755,8 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:26" x14ac:dyDescent="0.25">
-      <c r="A2" s="16" t="s">
+    <row r="2" spans="1:26" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
         <v>25</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -832,7 +835,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>25</v>
       </c>
@@ -912,7 +915,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>25</v>
       </c>
@@ -992,7 +995,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>25</v>
       </c>
@@ -1072,7 +1075,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>1</v>
       </c>
@@ -1152,7 +1155,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>1</v>
       </c>
@@ -1232,7 +1235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>1</v>
       </c>
@@ -1312,7 +1315,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>1</v>
       </c>
@@ -1392,7 +1395,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>1</v>
       </c>
@@ -1472,7 +1475,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>1</v>
       </c>
@@ -1552,7 +1555,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>25</v>
       </c>
@@ -1632,7 +1635,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>25</v>
       </c>
@@ -1712,7 +1715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>25</v>
       </c>
@@ -1792,7 +1795,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A15" s="15" t="s">
         <v>25</v>
       </c>
@@ -1872,7 +1875,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
         <v>25</v>
       </c>
@@ -1952,7 +1955,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
         <v>25</v>
       </c>
@@ -2032,7 +2035,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="18" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
@@ -2112,7 +2115,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
         <v>25</v>
       </c>
@@ -2192,7 +2195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>3</v>
       </c>
@@ -2272,7 +2275,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>3</v>
       </c>
@@ -2352,7 +2355,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>3</v>
       </c>
@@ -2432,7 +2435,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>3</v>
       </c>
@@ -2512,7 +2515,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>3</v>
       </c>
@@ -2592,7 +2595,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="25" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>3</v>
       </c>
@@ -2672,7 +2675,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>3</v>
       </c>
@@ -2752,7 +2755,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>0</v>
       </c>
@@ -2829,7 +2832,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="29" spans="1:26" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:26" x14ac:dyDescent="0.2">
       <c r="A29" s="8"/>
     </row>
   </sheetData>
